--- a/data/turnout_2000-2016.xlsx
+++ b/data/turnout_2000-2016.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t xml:space="preserve">Percent of Voters Registering on Election Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent.Turnout</t>
   </si>
   <si>
     <t xml:space="preserve">74.72%</t>
@@ -107,6 +110,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -128,11 +132,13 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -211,10 +217,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -241,6 +247,9 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -253,13 +262,17 @@
         <v>2968281</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>353179</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <f aca="false">D2+0</f>
+        <v>0.7472</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -273,13 +286,17 @@
         <v>1992566</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>152101</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <f aca="false">D3+0</f>
+        <v>0.5051</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -293,13 +310,17 @@
         <v>2950780</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>527867</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <f aca="false">D4+0</f>
+        <v>0.7642</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -313,13 +334,17 @@
         <v>2123369</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>227857</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <f aca="false">D5+0</f>
+        <v>0.5583</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -333,13 +358,17 @@
         <v>2921498</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>542257</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <f aca="false">D6+0</f>
+        <v>0.7811</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -353,13 +382,17 @@
         <v>2217818</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>292168</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <f aca="false">D7+0</f>
+        <v>0.6047</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -373,13 +406,17 @@
         <v>2842912</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>581904</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <f aca="false">D8+0</f>
+        <v>0.7877</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -393,13 +430,17 @@
         <v>2282860</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>342978</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <f aca="false">D9+0</f>
+        <v>0.6489</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -413,13 +454,17 @@
         <v>2458303</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>464155</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <f aca="false">D10+0</f>
+        <v>0.7011</v>
       </c>
     </row>
   </sheetData>
